--- a/data/trans_orig/P21D3_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>64129</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>50501</v>
+        <v>50040</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83655</v>
+        <v>80306</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2623841277268992</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2066225081324064</v>
+        <v>0.2047364207371503</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3422752355362644</v>
+        <v>0.3285717125350857</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>74</v>
@@ -762,19 +762,19 @@
         <v>58247</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>48262</v>
+        <v>46812</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>73317</v>
+        <v>73532</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2480442130752022</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2055237130997479</v>
+        <v>0.1993503181873037</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3122230965178908</v>
+        <v>0.3131374699551018</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>130</v>
@@ -783,19 +783,19 @@
         <v>122376</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>105349</v>
+        <v>102516</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>145873</v>
+        <v>142633</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2553575904962882</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2198288020200513</v>
+        <v>0.213916131447849</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3043874191169787</v>
+        <v>0.2976272551538424</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>179025</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>159700</v>
+        <v>162701</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>193094</v>
+        <v>193326</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7324789959776479</v>
+        <v>0.7324789959776478</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6534093351513209</v>
+        <v>0.6656878471755659</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7900416424180301</v>
+        <v>0.7909915007177244</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>236</v>
@@ -833,19 +833,19 @@
         <v>174090</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>159912</v>
+        <v>159163</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>184587</v>
+        <v>185785</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7413635968421156</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6809878346609718</v>
+        <v>0.6777961146648966</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7860645923535098</v>
+        <v>0.791166612502754</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>421</v>
@@ -854,19 +854,19 @@
         <v>353115</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>330064</v>
+        <v>331033</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>370518</v>
+        <v>371341</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7368324374220092</v>
+        <v>0.7368324374220091</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6887325104088753</v>
+        <v>0.6907537740417711</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7731464156560568</v>
+        <v>0.7748631043230862</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6343</v>
+        <v>6871</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.005136876295452978</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02595240593117307</v>
+        <v>0.02811088427022192</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -904,19 +904,19 @@
         <v>2487</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6036</v>
+        <v>5910</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01059219008268213</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002964382156491787</v>
+        <v>0.002957638472527617</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02570371785309676</v>
+        <v>0.02516744273424948</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -925,19 +925,19 @@
         <v>3743</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1379</v>
+        <v>1244</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9082</v>
+        <v>9415</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.00780997208170264</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002876515474268859</v>
+        <v>0.002596034588802361</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01895039440696205</v>
+        <v>0.01964500650746981</v>
       </c>
     </row>
     <row r="7">
@@ -1076,19 +1076,19 @@
         <v>49245</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>37073</v>
+        <v>35140</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>63294</v>
+        <v>62063</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2500682208030435</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1882595409092892</v>
+        <v>0.1784393638901673</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3214087190562252</v>
+        <v>0.3151570377026638</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>52</v>
@@ -1097,19 +1097,19 @@
         <v>41655</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>31589</v>
+        <v>31995</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>53130</v>
+        <v>52861</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2118521062807296</v>
+        <v>0.2118521062807297</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1606561480358058</v>
+        <v>0.162724240526851</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2702147548307754</v>
+        <v>0.2688473770116335</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>96</v>
@@ -1118,19 +1118,19 @@
         <v>90900</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>76413</v>
+        <v>75159</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>110922</v>
+        <v>107270</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2309749806137643</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1941627146901533</v>
+        <v>0.1909766799558884</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2818502080534789</v>
+        <v>0.2725702967231158</v>
       </c>
     </row>
     <row r="10">
@@ -1147,19 +1147,19 @@
         <v>146892</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>133023</v>
+        <v>133791</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>158948</v>
+        <v>160891</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7459202993062937</v>
+        <v>0.7459202993062936</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6754961946494229</v>
+        <v>0.6793926640160443</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8071393067189504</v>
+        <v>0.8170106946363082</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>214</v>
@@ -1168,19 +1168,19 @@
         <v>153655</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>142533</v>
+        <v>142950</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>164138</v>
+        <v>163760</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7814725506478636</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7249105822030293</v>
+        <v>0.7270305587933141</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8347882819610758</v>
+        <v>0.8328681708054247</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>363</v>
@@ -1189,19 +1189,19 @@
         <v>300547</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>281305</v>
+        <v>283495</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>315361</v>
+        <v>316622</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7636826407326539</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7147913742795274</v>
+        <v>0.7203549591092825</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8013259807638272</v>
+        <v>0.804529138159957</v>
       </c>
     </row>
     <row r="11">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5614</v>
+        <v>4524</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004011479890662763</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02850962463739092</v>
+        <v>0.02297150355021431</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5361</v>
+        <v>4653</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006675343071406784</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0272645649769778</v>
+        <v>0.0236636694239564</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -1260,19 +1260,19 @@
         <v>2102</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6313</v>
+        <v>5890</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005342378653581881</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001563008184052285</v>
+        <v>0.001540100138718202</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01604163010496593</v>
+        <v>0.0149664967658629</v>
       </c>
     </row>
     <row r="12">
@@ -1411,19 +1411,19 @@
         <v>50080</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37092</v>
+        <v>36522</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>66196</v>
+        <v>64354</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2652025774530291</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.196423015357215</v>
+        <v>0.1934037119811467</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3505450301513424</v>
+        <v>0.3407916694025304</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -1432,19 +1432,19 @@
         <v>12619</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7986</v>
+        <v>7796</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18732</v>
+        <v>18898</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1456817544561126</v>
+        <v>0.1456817544561125</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09219184331091479</v>
+        <v>0.08999971810120748</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2162542706722448</v>
+        <v>0.2181741903790576</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>62</v>
@@ -1453,19 +1453,19 @@
         <v>62699</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>47735</v>
+        <v>48132</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>79380</v>
+        <v>78787</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2276178406241758</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1732936070591738</v>
+        <v>0.1747326614120685</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2881741143378991</v>
+        <v>0.2860223660997998</v>
       </c>
     </row>
     <row r="15">
@@ -1482,19 +1482,19 @@
         <v>138757</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>122641</v>
+        <v>124483</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>151745</v>
+        <v>152315</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.734797422546971</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6494549698486576</v>
+        <v>0.6592083305974695</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8035769846427849</v>
+        <v>0.8065962880188533</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>108</v>
@@ -1503,19 +1503,19 @@
         <v>72866</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>66627</v>
+        <v>66597</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>77755</v>
+        <v>77680</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.841204212595007</v>
+        <v>0.8412042125950069</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.7691828355046895</v>
+        <v>0.7688270788263591</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8976498969439415</v>
+        <v>0.8967750153926494</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>254</v>
@@ -1524,19 +1524,19 @@
         <v>211623</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>195139</v>
+        <v>195665</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>226448</v>
+        <v>226424</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.7682582965643934</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.7084150131466012</v>
+        <v>0.7103266271557604</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8220768526915865</v>
+        <v>0.8219913489080594</v>
       </c>
     </row>
     <row r="16">
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3795</v>
+        <v>4173</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01311403294888047</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04381487442842289</v>
+        <v>0.04817472319978418</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3899</v>
+        <v>4267</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00412386281143076</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01415596252125157</v>
+        <v>0.0154913754961128</v>
       </c>
     </row>
     <row r="17">
@@ -1738,19 +1738,19 @@
         <v>157683</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>136233</v>
+        <v>135254</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>182209</v>
+        <v>181685</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3080746464390055</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2661656049489213</v>
+        <v>0.2642521718333166</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3559913594523736</v>
+        <v>0.3549684764988664</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>89</v>
@@ -1759,19 +1759,19 @@
         <v>71413</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57996</v>
+        <v>58392</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86520</v>
+        <v>86461</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1844046136343404</v>
+        <v>0.1844046136343405</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1497593591132001</v>
+        <v>0.1507814565600295</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2234149508865097</v>
+        <v>0.2232618335699355</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>219</v>
@@ -1780,19 +1780,19 @@
         <v>229096</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>201250</v>
+        <v>202959</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>255565</v>
+        <v>257547</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2548070489948652</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2238360391474472</v>
+        <v>0.2257370108498929</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2842465423825132</v>
+        <v>0.2864506972848307</v>
       </c>
     </row>
     <row r="20">
@@ -1809,19 +1809,19 @@
         <v>348457</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>323820</v>
+        <v>324400</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>370560</v>
+        <v>372355</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6807995890008912</v>
+        <v>0.6807995890008913</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6326645910349193</v>
+        <v>0.6337979082848089</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.723984201427299</v>
+        <v>0.727489931781711</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>441</v>
@@ -1830,19 +1830,19 @@
         <v>310352</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>294783</v>
+        <v>295075</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>323802</v>
+        <v>323793</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8014013408788913</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7611991107056064</v>
+        <v>0.7619524150533227</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8361321041783426</v>
+        <v>0.836109131550715</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>800</v>
@@ -1851,19 +1851,19 @@
         <v>658809</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>631640</v>
+        <v>629866</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>686158</v>
+        <v>685328</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7327456055451116</v>
+        <v>0.7327456055451115</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.702526826241496</v>
+        <v>0.7005536113704068</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.763163313220047</v>
+        <v>0.7622402360229097</v>
       </c>
     </row>
     <row r="21">
@@ -1880,19 +1880,19 @@
         <v>5695</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2181</v>
+        <v>2421</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13137</v>
+        <v>12749</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.01112576456010317</v>
+        <v>0.01112576456010318</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004261516912334614</v>
+        <v>0.004729437587397533</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02566624277748757</v>
+        <v>0.0249076147638934</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -1901,19 +1901,19 @@
         <v>4795</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1888</v>
+        <v>2245</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9104</v>
+        <v>9466</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01238054898192048</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.004875894377794501</v>
+        <v>0.005795949437741756</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02350972548760352</v>
+        <v>0.02444283818945617</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>14</v>
@@ -1922,19 +1922,19 @@
         <v>10489</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5630</v>
+        <v>5912</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17994</v>
+        <v>19034</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01166622977988778</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.006262215894339057</v>
+        <v>0.006575386918541308</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02001304660999044</v>
+        <v>0.02117039812336357</v>
       </c>
     </row>
     <row r="22">
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3900</v>
+        <v>3566</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001813496504847828</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01007095143806669</v>
+        <v>0.009209472895739434</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -1988,16 +1988,16 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3563</v>
+        <v>4181</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0007811156801354521</v>
+        <v>0.000781115680135452</v>
       </c>
       <c r="V22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.003963266080479198</v>
+        <v>0.004650777125526332</v>
       </c>
     </row>
     <row r="23">
@@ -2089,19 +2089,19 @@
         <v>91087</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>74374</v>
+        <v>72896</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>109632</v>
+        <v>109411</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3424246031755959</v>
+        <v>0.342424603175596</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2795945854409605</v>
+        <v>0.2740360343074772</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4121388562953324</v>
+        <v>0.4113103355031438</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>82</v>
@@ -2110,19 +2110,19 @@
         <v>60217</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>47563</v>
+        <v>49601</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>72406</v>
+        <v>73502</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1547511835441317</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1222303388358425</v>
+        <v>0.1274683502346673</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1860755423313562</v>
+        <v>0.1888918962924713</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>156</v>
@@ -2131,19 +2131,19 @@
         <v>151305</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>129638</v>
+        <v>129170</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>176013</v>
+        <v>175645</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2309536061856223</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1978815082449048</v>
+        <v>0.1971664709127674</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.268668678622597</v>
+        <v>0.2681071148452768</v>
       </c>
     </row>
     <row r="25">
@@ -2160,19 +2160,19 @@
         <v>174173</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>155615</v>
+        <v>156070</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>190578</v>
+        <v>192964</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.654768741669175</v>
+        <v>0.6547687416691751</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5850029296480809</v>
+        <v>0.5867123419170254</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7164391945252677</v>
+        <v>0.7254081793257421</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>495</v>
@@ -2181,19 +2181,19 @@
         <v>325665</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>312956</v>
+        <v>311932</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>338676</v>
+        <v>336498</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8369192504537308</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8042606720674149</v>
+        <v>0.8016292553019965</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8703566103198234</v>
+        <v>0.8647609267925496</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>667</v>
@@ -2202,19 +2202,19 @@
         <v>499838</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>474256</v>
+        <v>475317</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>520564</v>
+        <v>521442</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7629593360342029</v>
+        <v>0.7629593360342025</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7239110089917481</v>
+        <v>0.725530640326764</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.794596950475339</v>
+        <v>0.7959369755217135</v>
       </c>
     </row>
     <row r="26">
@@ -2244,19 +2244,19 @@
         <v>1931</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6392</v>
+        <v>6034</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004961611490585841</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0009678139645680369</v>
+        <v>0.0009652258019221885</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01642758071644856</v>
+        <v>0.01550679704936143</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -2265,19 +2265,19 @@
         <v>1931</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5365</v>
+        <v>5700</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.002947011785785073</v>
+        <v>0.002947011785785072</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0005680566756744473</v>
+        <v>0.0005700653411461628</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008188794060581614</v>
+        <v>0.008700705463793063</v>
       </c>
     </row>
     <row r="27">
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4201</v>
+        <v>4166</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.002806655155229263</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01579273830294804</v>
+        <v>0.01566294321845637</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>4147</v>
+        <v>5027</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.00336795451155172</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.01065714656309341</v>
+        <v>0.01291890190991238</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3</v>
@@ -2336,19 +2336,19 @@
         <v>2057</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>571</v>
+        <v>553</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5979</v>
+        <v>5112</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.003140045994389978</v>
+        <v>0.003140045994389976</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0008718747136185802</v>
+        <v>0.0008446725050886319</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.009127176120779819</v>
+        <v>0.007803529395209577</v>
       </c>
     </row>
     <row r="28">
@@ -2440,19 +2440,19 @@
         <v>48186</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>31841</v>
+        <v>32426</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>64405</v>
+        <v>63743</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4103108336600296</v>
+        <v>0.4103108336600295</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2711308560786959</v>
+        <v>0.2761112174951694</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5484216733359464</v>
+        <v>0.5427853098965912</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>87</v>
@@ -2461,19 +2461,19 @@
         <v>88599</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>72287</v>
+        <v>71192</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>109580</v>
+        <v>106252</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2494191644826867</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2034973867594604</v>
+        <v>0.200413944825412</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3084810687969037</v>
+        <v>0.2991123862299953</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>109</v>
@@ -2482,19 +2482,19 @@
         <v>136785</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>114382</v>
+        <v>114980</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>163553</v>
+        <v>162441</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2893943266817482</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2419970473475053</v>
+        <v>0.2432604887739086</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3460265582045735</v>
+        <v>0.3436735869169772</v>
       </c>
     </row>
     <row r="30">
@@ -2511,19 +2511,19 @@
         <v>69251</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>53032</v>
+        <v>53694</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>85596</v>
+        <v>85011</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5896891663399706</v>
+        <v>0.5896891663399704</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4515783266640535</v>
+        <v>0.4572146901034086</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7288691439213041</v>
+        <v>0.7238887825048306</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>393</v>
@@ -2532,19 +2532,19 @@
         <v>262102</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>241741</v>
+        <v>244147</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>279543</v>
+        <v>279344</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.7378518369782424</v>
+        <v>0.7378518369782423</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6805331502566707</v>
+        <v>0.6873058706833408</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7869495301456622</v>
+        <v>0.7863894610720771</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>427</v>
@@ -2553,19 +2553,19 @@
         <v>331353</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>303738</v>
+        <v>306398</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>352732</v>
+        <v>354402</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7010393231862286</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.6426137323312325</v>
+        <v>0.6482416314622683</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7462697666105076</v>
+        <v>0.749802187809907</v>
       </c>
     </row>
     <row r="31">
@@ -2595,19 +2595,19 @@
         <v>4522</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1427</v>
+        <v>1362</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12502</v>
+        <v>12274</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0127289985390708</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.004016874999717736</v>
+        <v>0.003834862765920381</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03519488272288979</v>
+        <v>0.03455237599800579</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5</v>
@@ -2616,19 +2616,19 @@
         <v>4522</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1827</v>
+        <v>1353</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>13590</v>
+        <v>12572</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.009566350132023083</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.003865343267669265</v>
+        <v>0.002863450235466608</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02875286683977727</v>
+        <v>0.02659818185458547</v>
       </c>
     </row>
     <row r="32">
@@ -2767,19 +2767,19 @@
         <v>460411</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>418369</v>
+        <v>420420</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>503059</v>
+        <v>500011</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.3018191668417768</v>
+        <v>0.3018191668417767</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.274258457884058</v>
+        <v>0.2756031051712087</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3297766910579051</v>
+        <v>0.3277782219333821</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>403</v>
@@ -2788,19 +2788,19 @@
         <v>332750</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>305494</v>
+        <v>302746</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>367255</v>
+        <v>365985</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2017065027730262</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1851842236193885</v>
+        <v>0.1835183200209602</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2226223636710133</v>
+        <v>0.2218529032529291</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>772</v>
@@ -2809,19 +2809,19 @@
         <v>793161</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>741042</v>
+        <v>745813</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>844254</v>
+        <v>849905</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2498044715466646</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2333896818181847</v>
+        <v>0.2348922403763241</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2658959280779437</v>
+        <v>0.2676756941425968</v>
       </c>
     </row>
     <row r="35">
@@ -2838,19 +2838,19 @@
         <v>1056556</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1013872</v>
+        <v>1015377</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1098277</v>
+        <v>1095752</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.6926174922073614</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.6646362281359578</v>
+        <v>0.6656225147473772</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7199670249251815</v>
+        <v>0.718312143889586</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1887</v>
@@ -2859,19 +2859,19 @@
         <v>1298729</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1263288</v>
+        <v>1265600</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1326534</v>
+        <v>1329872</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.7872637813432254</v>
+        <v>0.7872637813432253</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.7657797090684053</v>
+        <v>0.7671816696771894</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.8041183532742475</v>
+        <v>0.8061419461553924</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2932</v>
@@ -2880,19 +2880,19 @@
         <v>2355286</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2304231</v>
+        <v>2298562</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>2410021</v>
+        <v>2403491</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.741792069030472</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.7257126687173316</v>
+        <v>0.7239271479968665</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.759030908020765</v>
+        <v>0.7569742008157156</v>
       </c>
     </row>
     <row r="36">
@@ -2909,19 +2909,19 @@
         <v>7740</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3835</v>
+        <v>3593</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15240</v>
+        <v>14964</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.005073919053676989</v>
+        <v>0.00507391905367699</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.002513682126887978</v>
+        <v>0.002355538748423183</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.009990201612747905</v>
+        <v>0.009809334285289871</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>24</v>
@@ -2930,19 +2930,19 @@
         <v>16183</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>10639</v>
+        <v>10693</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>25403</v>
+        <v>25653</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.009809568558459436</v>
+        <v>0.009809568558459434</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.006449331037238332</v>
+        <v>0.006481973947702896</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01539868513879877</v>
+        <v>0.01555046854911867</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>32</v>
@@ -2951,19 +2951,19 @@
         <v>23923</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>16599</v>
+        <v>16167</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>34817</v>
+        <v>33475</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.007534380657680949</v>
+        <v>0.007534380657680951</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.005227675907195754</v>
+        <v>0.005091834985860882</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01096546694385806</v>
+        <v>0.01054272297070861</v>
       </c>
     </row>
     <row r="37">
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>4139</v>
+        <v>3996</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0004894218971849182</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.002713538953526821</v>
+        <v>0.002619814742307905</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3</v>
@@ -3001,19 +3001,19 @@
         <v>2013</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>5403</v>
+        <v>5566</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.001220147325288987</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0003382866349231094</v>
+        <v>0.0003394097155894653</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.00327524646453887</v>
+        <v>0.003374249078117158</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4</v>
@@ -3022,19 +3022,19 @@
         <v>2759</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>738</v>
+        <v>707</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>7147</v>
+        <v>6481</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0008690787651823767</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0002325600501772084</v>
+        <v>0.0002228204171132357</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.002250811930378354</v>
+        <v>0.002041296677732298</v>
       </c>
     </row>
     <row r="38">
